--- a/SourceDataTables/FigS23c.xlsx
+++ b/SourceDataTables/FigS23c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="31">
   <si>
     <t>Neuronal_subcluster</t>
   </si>
@@ -126,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -150,11 +150,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -172,6 +176,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,24 +200,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -226,7 +234,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -243,7 +251,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -260,7 +268,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -277,7 +285,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -294,7 +302,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -311,7 +319,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -328,7 +336,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -345,7 +353,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -362,7 +370,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -379,7 +387,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -396,7 +404,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -413,7 +421,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -430,7 +438,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -447,7 +455,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -464,7 +472,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -481,7 +489,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -498,7 +506,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -515,7 +523,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -532,7 +540,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -549,7 +557,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -566,7 +574,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -583,7 +591,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -600,7 +608,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -617,7 +625,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -634,7 +642,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B27">
